--- a/data/base.xlsx
+++ b/data/base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -510,10 +510,13 @@
     <col min="7" max="7" width="22.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="22.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,8 +566,15 @@
         <f>(B2+C2+D2)/3</f>
         <v>393.66666666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K2" s="1">
+        <v>397</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K2/I2</f>
+        <v>1.0084674005080441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -592,7 +602,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,7 +630,7 @@
         <v>313.33333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,7 +658,7 @@
         <v>602.33333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -676,7 +686,7 @@
         <v>198.66666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -704,7 +714,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,7 +732,7 @@
         <v>216.66666666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -740,7 +750,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -758,7 +768,7 @@
         <v>266.66666666666669</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,7 +780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -788,7 +798,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,7 +816,7 @@
         <v>430.66666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -824,7 +834,7 @@
         <v>265.33333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -842,7 +852,7 @@
         <v>496.66666666666669</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
